--- a/SIG & CAF vierge.xlsx
+++ b/SIG & CAF vierge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydérick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4AD336-44D1-4AC4-8C9C-2F9A945074B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7E9299-1B31-4190-A9BC-07279A04F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIG retraite" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1754,6 +1754,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,7 +1975,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -25408,8 +25409,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -25486,13 +25487,13 @@
       <c r="B4" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="165">
-        <f>((-7947-3165)/3165)/((169378-196113)/196113)</f>
-        <v>25.754001295849999</v>
-      </c>
-      <c r="D4" s="166">
-        <f>((-28114--7947)/-7947)/((165163-169378)/169378)</f>
-        <v>-101.97589057159674</v>
+      <c r="C4" s="165" t="e">
+        <f>(('SIG retraite'!K17-'SIG retraite'!J17)/'SIG retraite'!J17)/(('SIG retraite'!C13-'SIG retraite'!B13)/'SIG retraite'!B13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="166" t="e">
+        <f>(('SIG retraite'!L17-'SIG retraite'!K17)/'SIG retraite'!K17)/(('SIG retraite'!D13-'SIG retraite'!C13)/'SIG retraite'!C13)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E4" s="202"/>
       <c r="F4" s="203"/>
@@ -25628,18 +25629,20 @@
       <c r="K9" s="203"/>
       <c r="L9" s="204"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="7:7" ht="15.75" customHeight="1">
+      <c r="G25" s="206"/>
+    </row>
+    <row r="26" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="7:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
